--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_16_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_16_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1826275.31238482</v>
+        <v>-1829190.266974793</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.99361326575547</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>36.99361326575547</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>25.70792882276599</v>
+        <v>13.8919914206772</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>36.99361326575547</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>11.8159374020888</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
     </row>
     <row r="6">
@@ -978,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>32.58397456447743</v>
+      </c>
+      <c r="H6" t="n">
         <v>36.99361326575547</v>
-      </c>
-      <c r="E6" t="n">
-        <v>36.99361326575547</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>32.58397456447742</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>36.99361326575547</v>
-      </c>
-      <c r="D7" t="n">
-        <v>36.99361326575547</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>36.40493131899346</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>36.40493131899344</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>157.1187419577132</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>157.1187419577134</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>157.1187419577134</v>
+        <v>157.1187419577132</v>
       </c>
       <c r="H8" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>131.4600546760548</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>21.12316271950939</v>
+        <v>21.12316271950951</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>117.2670251968445</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>136.0496667367912</v>
       </c>
     </row>
     <row r="9">
@@ -1212,16 +1212,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>128.0418019545434</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.1187419577132</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>51.64041629783931</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>32.071591919214</v>
+        <v>32.07159191921404</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>54.67817969930072</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.1187419577134</v>
+        <v>157.1187419577132</v>
       </c>
       <c r="C10" t="n">
-        <v>9.912927720708982</v>
+        <v>157.1187419577132</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>127.8026899798254</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.177839155320669</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1.472408832923294</v>
       </c>
       <c r="Y10" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,16 +1373,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>19.17475975089213</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>14.31259208839343</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1576,10 +1576,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>97.54718271544493</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>30.96411613815231</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>410.1644063769637</v>
       </c>
       <c r="H14" t="n">
-        <v>286.8518683469699</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516573</v>
+        <v>91.9303487751657</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>345.8551488439302</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>201.6597577283888</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T15" t="n">
         <v>189.0833237787849</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>37.76059778303578</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.7373810657723</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
         <v>141.7347076965137</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442973</v>
+        <v>73.65767465442971</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
@@ -1819,7 +1819,7 @@
         <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
         <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1859,7 +1859,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>354.62773630384</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2005,7 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E19" t="n">
         <v>114.8237602943553</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139452958</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T19" t="n">
         <v>186.4872700401421</v>
@@ -2065,7 +2065,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y19" t="n">
         <v>186.9744509998809</v>
@@ -2096,7 +2096,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>42.04747230221558</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T22" t="n">
         <v>186.4872700401421</v>
@@ -2302,7 +2302,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y22" t="n">
         <v>186.9744509998809</v>
@@ -2333,7 +2333,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2375,7 +2375,7 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179215</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W23" t="n">
         <v>317.6307663651991</v>
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
         <v>114.8237602943553</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
@@ -2649,10 +2649,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H27" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902188965</v>
+        <v>4.86620090218895</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
         <v>186.4872700401421</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112669</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187938</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684691</v>
+        <v>323.0728392684692</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200481</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894977</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.55420402475</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947561</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295193</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545726</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645691</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179212</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651993</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262553</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038399</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H30" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902188965</v>
+        <v>4.86620090218895</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297236</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464141</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943555</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707136</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510284</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442999</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453032</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221595</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612654</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716143</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843773</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368234</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998811</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D32" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3047,7 +3047,7 @@
         <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
-        <v>1.660112047829898e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295176</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H33" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I33" t="n">
-        <v>4.866200902188965</v>
+        <v>4.86620090218895</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G34" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453014</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U34" t="n">
         <v>254.5831063612652</v>
@@ -3250,10 +3250,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
@@ -3360,10 +3360,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H36" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I36" t="n">
-        <v>4.866200902188965</v>
+        <v>4.86620090218895</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
         <v>186.4872700401421</v>
@@ -3512,7 +3512,7 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894991</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
         <v>378.5542040247498</v>
@@ -3521,7 +3521,7 @@
         <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.546443056417047e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3597,10 +3597,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H39" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I39" t="n">
-        <v>4.866200902188965</v>
+        <v>4.86620090218895</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3758,7 +3758,7 @@
         <v>255.2416659947559</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.378737124468898e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3834,10 +3834,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H42" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I42" t="n">
-        <v>4.866200902188965</v>
+        <v>4.86620090218895</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E43" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T43" t="n">
         <v>186.4872700401421</v>
@@ -3961,7 +3961,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y43" t="n">
         <v>186.9744509998809</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112669</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187938</v>
       </c>
       <c r="D44" t="n">
-        <v>323.0728392684691</v>
+        <v>323.0728392684692</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200481</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894977</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247498</v>
+        <v>378.55420402475</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947561</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295191</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645689</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V44" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179212</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651993</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262553</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038399</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H45" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902188965</v>
+        <v>4.86620090218895</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464141</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707175</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510284</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442999</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453014</v>
+        <v>54.52629139453029</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221198</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V46" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716143</v>
       </c>
       <c r="W46" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843773</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368234</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
   </sheetData>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73.23988080897044</v>
+        <v>23.93730437680452</v>
       </c>
       <c r="C5" t="n">
-        <v>35.87259468194471</v>
+        <v>23.93730437680452</v>
       </c>
       <c r="D5" t="n">
-        <v>35.87259468194471</v>
+        <v>23.93730437680452</v>
       </c>
       <c r="E5" t="n">
-        <v>35.87259468194471</v>
+        <v>23.93730437680452</v>
       </c>
       <c r="F5" t="n">
-        <v>28.92709393274124</v>
+        <v>16.99180362760104</v>
       </c>
       <c r="G5" t="n">
         <v>2.959489061260438</v>
@@ -4565,22 +4565,22 @@
         <v>2.959489061260438</v>
       </c>
       <c r="J5" t="n">
-        <v>2.959489061260438</v>
+        <v>39.58316619435835</v>
       </c>
       <c r="K5" t="n">
         <v>39.58316619435835</v>
       </c>
       <c r="L5" t="n">
-        <v>76.20684332745626</v>
+        <v>64.54856509941516</v>
       </c>
       <c r="M5" t="n">
-        <v>112.8305204605542</v>
+        <v>81.74331766130251</v>
       </c>
       <c r="N5" t="n">
-        <v>140.4537848081324</v>
+        <v>103.8301076750345</v>
       </c>
       <c r="O5" t="n">
-        <v>147.9744530630219</v>
+        <v>111.350775929924</v>
       </c>
       <c r="P5" t="n">
         <v>147.9744530630219</v>
@@ -4592,25 +4592,25 @@
         <v>110.6071669359962</v>
       </c>
       <c r="S5" t="n">
-        <v>110.6071669359962</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="T5" t="n">
-        <v>110.6071669359962</v>
+        <v>61.30459050383024</v>
       </c>
       <c r="U5" t="n">
-        <v>110.6071669359962</v>
+        <v>61.30459050383024</v>
       </c>
       <c r="V5" t="n">
-        <v>110.6071669359962</v>
+        <v>61.30459050383024</v>
       </c>
       <c r="W5" t="n">
-        <v>110.6071669359962</v>
+        <v>61.30459050383024</v>
       </c>
       <c r="X5" t="n">
-        <v>110.6071669359962</v>
+        <v>61.30459050383024</v>
       </c>
       <c r="Y5" t="n">
-        <v>110.6071669359962</v>
+        <v>23.93730437680452</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.6940613153119</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="C6" t="n">
-        <v>77.6940613153119</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="D6" t="n">
+        <v>73.23988080897044</v>
+      </c>
+      <c r="E6" t="n">
+        <v>73.23988080897044</v>
+      </c>
+      <c r="F6" t="n">
+        <v>73.23988080897044</v>
+      </c>
+      <c r="G6" t="n">
         <v>40.32677518828616</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.959489061260438</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.959489061260438</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.959489061260438</v>
       </c>
       <c r="H6" t="n">
         <v>2.959489061260438</v>
@@ -4674,22 +4674,22 @@
         <v>110.6071669359962</v>
       </c>
       <c r="T6" t="n">
-        <v>110.6071669359962</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="U6" t="n">
-        <v>110.6071669359962</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="V6" t="n">
-        <v>77.6940613153119</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="W6" t="n">
-        <v>77.6940613153119</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="X6" t="n">
-        <v>77.6940613153119</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="Y6" t="n">
-        <v>77.6940613153119</v>
+        <v>73.23988080897044</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.4667192132851</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="C7" t="n">
-        <v>77.09943308625935</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="D7" t="n">
-        <v>39.73214695923362</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="E7" t="n">
-        <v>39.73214695923362</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="F7" t="n">
-        <v>39.73214695923362</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="G7" t="n">
-        <v>2.959489061260438</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="H7" t="n">
-        <v>2.959489061260438</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="I7" t="n">
-        <v>2.959489061260438</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="J7" t="n">
         <v>2.959489061260438</v>
       </c>
       <c r="K7" t="n">
-        <v>39.58316619435835</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="L7" t="n">
-        <v>39.58316619435835</v>
+        <v>38.10342166372814</v>
       </c>
       <c r="M7" t="n">
         <v>74.72709879682606</v>
@@ -4738,7 +4738,7 @@
         <v>111.350775929924</v>
       </c>
       <c r="O7" t="n">
-        <v>111.350775929924</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="P7" t="n">
         <v>147.9744530630219</v>
@@ -4762,13 +4762,13 @@
         <v>114.4667192132851</v>
       </c>
       <c r="W7" t="n">
-        <v>114.4667192132851</v>
+        <v>77.6940613153119</v>
       </c>
       <c r="X7" t="n">
-        <v>114.4667192132851</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="Y7" t="n">
-        <v>114.4667192132851</v>
+        <v>40.32677518828616</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>488.6868992284758</v>
+        <v>469.7145340366096</v>
       </c>
       <c r="C8" t="n">
-        <v>488.6868992284758</v>
+        <v>469.7145340366096</v>
       </c>
       <c r="D8" t="n">
-        <v>488.6868992284758</v>
+        <v>311.0087340793235</v>
       </c>
       <c r="E8" t="n">
-        <v>488.6868992284758</v>
+        <v>311.0087340793235</v>
       </c>
       <c r="F8" t="n">
-        <v>329.9810992711896</v>
+        <v>304.0632333301201</v>
       </c>
       <c r="G8" t="n">
-        <v>171.2752993139033</v>
+        <v>145.357433372834</v>
       </c>
       <c r="H8" t="n">
-        <v>12.56949935661707</v>
+        <v>145.357433372834</v>
       </c>
       <c r="I8" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661705</v>
       </c>
       <c r="J8" t="n">
-        <v>61.34835368036728</v>
+        <v>61.34835368036802</v>
       </c>
       <c r="K8" t="n">
-        <v>101.5645669032556</v>
+        <v>101.5645669032561</v>
       </c>
       <c r="L8" t="n">
-        <v>188.3580974250192</v>
+        <v>188.3580974250195</v>
       </c>
       <c r="M8" t="n">
         <v>316.6020608975391</v>
       </c>
       <c r="N8" t="n">
-        <v>451.5349541528133</v>
+        <v>451.5349541528129</v>
       </c>
       <c r="O8" t="n">
-        <v>565.6129977599418</v>
+        <v>565.6129977599412</v>
       </c>
       <c r="P8" t="n">
-        <v>628.4749678308535</v>
+        <v>628.4749678308527</v>
       </c>
       <c r="Q8" t="n">
-        <v>628.4749678308535</v>
+        <v>628.4749678308527</v>
       </c>
       <c r="R8" t="n">
-        <v>607.138439831349</v>
+        <v>607.1384398313481</v>
       </c>
       <c r="S8" t="n">
-        <v>607.138439831349</v>
+        <v>607.1384398313481</v>
       </c>
       <c r="T8" t="n">
-        <v>607.138439831349</v>
+        <v>607.1384398313481</v>
       </c>
       <c r="U8" t="n">
-        <v>607.138439831349</v>
+        <v>607.1384398313481</v>
       </c>
       <c r="V8" t="n">
-        <v>607.138439831349</v>
+        <v>607.1384398313481</v>
       </c>
       <c r="W8" t="n">
-        <v>607.138439831349</v>
+        <v>607.1384398313481</v>
       </c>
       <c r="X8" t="n">
-        <v>488.6868992284758</v>
+        <v>607.1384398313481</v>
       </c>
       <c r="Y8" t="n">
-        <v>488.6868992284758</v>
+        <v>469.7145340366096</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64.73153602110122</v>
+        <v>596.0794204377072</v>
       </c>
       <c r="C9" t="n">
-        <v>64.73153602110122</v>
+        <v>466.7442669482694</v>
       </c>
       <c r="D9" t="n">
-        <v>64.73153602110122</v>
+        <v>317.8098572870181</v>
       </c>
       <c r="E9" t="n">
-        <v>64.73153602110122</v>
+        <v>159.1040573297321</v>
       </c>
       <c r="F9" t="n">
-        <v>64.73153602110122</v>
+        <v>12.56949935661705</v>
       </c>
       <c r="G9" t="n">
-        <v>64.73153602110122</v>
+        <v>12.56949935661705</v>
       </c>
       <c r="H9" t="n">
-        <v>64.73153602110122</v>
+        <v>12.56949935661705</v>
       </c>
       <c r="I9" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661705</v>
       </c>
       <c r="J9" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661705</v>
       </c>
       <c r="K9" t="n">
-        <v>51.41474465792126</v>
+        <v>51.41474465792157</v>
       </c>
       <c r="L9" t="n">
         <v>149.9695119216956</v>
       </c>
       <c r="M9" t="n">
-        <v>284.335144962728</v>
+        <v>284.3351449627279</v>
       </c>
       <c r="N9" t="n">
-        <v>436.6656814086846</v>
+        <v>436.6656814086843</v>
       </c>
       <c r="O9" t="n">
-        <v>553.798566872125</v>
+        <v>553.7985668721244</v>
       </c>
       <c r="P9" t="n">
-        <v>628.4749678308534</v>
+        <v>628.4749678308527</v>
       </c>
       <c r="Q9" t="n">
-        <v>628.4749678308535</v>
+        <v>628.4749678308527</v>
       </c>
       <c r="R9" t="n">
-        <v>596.0794204377081</v>
+        <v>596.0794204377072</v>
       </c>
       <c r="S9" t="n">
-        <v>596.0794204377081</v>
+        <v>596.0794204377072</v>
       </c>
       <c r="T9" t="n">
-        <v>596.0794204377081</v>
+        <v>596.0794204377072</v>
       </c>
       <c r="U9" t="n">
-        <v>437.3736204804219</v>
+        <v>596.0794204377072</v>
       </c>
       <c r="V9" t="n">
-        <v>278.6678205231357</v>
+        <v>596.0794204377072</v>
       </c>
       <c r="W9" t="n">
-        <v>119.9620205658494</v>
+        <v>596.0794204377072</v>
       </c>
       <c r="X9" t="n">
-        <v>64.73153602110122</v>
+        <v>596.0794204377072</v>
       </c>
       <c r="Y9" t="n">
-        <v>64.73153602110122</v>
+        <v>596.0794204377072</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>301.7928233149471</v>
+        <v>468.2818862241492</v>
       </c>
       <c r="C10" t="n">
-        <v>291.7797650112007</v>
+        <v>309.5760862668632</v>
       </c>
       <c r="D10" t="n">
-        <v>141.663125598865</v>
+        <v>159.4594468545274</v>
       </c>
       <c r="E10" t="n">
-        <v>141.663125598865</v>
+        <v>159.4594468545274</v>
       </c>
       <c r="F10" t="n">
-        <v>141.663125598865</v>
+        <v>12.56949935661705</v>
       </c>
       <c r="G10" t="n">
-        <v>141.663125598865</v>
+        <v>12.56949935661705</v>
       </c>
       <c r="H10" t="n">
-        <v>141.663125598865</v>
+        <v>12.56949935661705</v>
       </c>
       <c r="I10" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661705</v>
       </c>
       <c r="J10" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661705</v>
       </c>
       <c r="K10" t="n">
-        <v>96.26795780325851</v>
+        <v>12.56949935661705</v>
       </c>
       <c r="L10" t="n">
-        <v>251.8155123413948</v>
+        <v>168.1170538947531</v>
       </c>
       <c r="M10" t="n">
-        <v>407.363066879531</v>
+        <v>323.6646084328892</v>
       </c>
       <c r="N10" t="n">
-        <v>562.9106214176672</v>
+        <v>475.4872381248956</v>
       </c>
       <c r="O10" t="n">
-        <v>628.4749678308535</v>
+        <v>628.4749678308527</v>
       </c>
       <c r="P10" t="n">
-        <v>628.4749678308535</v>
+        <v>628.4749678308527</v>
       </c>
       <c r="Q10" t="n">
-        <v>619.2044232295195</v>
+        <v>628.4749678308527</v>
       </c>
       <c r="R10" t="n">
-        <v>619.2044232295195</v>
+        <v>628.4749678308527</v>
       </c>
       <c r="S10" t="n">
-        <v>619.2044232295195</v>
+        <v>628.4749678308527</v>
       </c>
       <c r="T10" t="n">
-        <v>619.2044232295195</v>
+        <v>628.4749678308527</v>
       </c>
       <c r="U10" t="n">
-        <v>619.2044232295195</v>
+        <v>628.4749678308527</v>
       </c>
       <c r="V10" t="n">
-        <v>619.2044232295195</v>
+        <v>628.4749678308527</v>
       </c>
       <c r="W10" t="n">
-        <v>619.2044232295195</v>
+        <v>628.4749678308527</v>
       </c>
       <c r="X10" t="n">
-        <v>619.2044232295195</v>
+        <v>626.9876861814353</v>
       </c>
       <c r="Y10" t="n">
-        <v>460.4986232722333</v>
+        <v>626.9876861814353</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1964.273285499504</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C11" t="n">
-        <v>1595.310768559092</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G11" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5072,19 +5072,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883008</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539437</v>
+        <v>2980.08577053995</v>
       </c>
       <c r="W11" t="n">
-        <v>2741.012457539437</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X11" t="n">
-        <v>2741.012457539437</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y11" t="n">
-        <v>2350.873125563625</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>331.5406302391191</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="C13" t="n">
-        <v>331.5406302391191</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D13" t="n">
-        <v>331.5406302391191</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E13" t="n">
-        <v>331.5406302391191</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F13" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5224,25 +5224,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1738.931583052642</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1449.828716178286</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1195.144227972399</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>905.7270579354381</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>677.7375070374208</v>
       </c>
       <c r="Y13" t="n">
-        <v>331.5406302391191</v>
+        <v>456.9449278938906</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2325.545057758603</v>
+        <v>2035.795695791967</v>
       </c>
       <c r="C14" t="n">
-        <v>1956.582540818192</v>
+        <v>1666.833178851556</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.316842211441</v>
+        <v>1308.567480244805</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.528589613197</v>
+        <v>922.7792276465609</v>
       </c>
       <c r="F14" t="n">
-        <v>801.5426848235895</v>
+        <v>511.7933228569533</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2352036347372</v>
+        <v>97.48584166810102</v>
       </c>
       <c r="H14" t="n">
         <v>97.48584166810102</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K14" t="n">
         <v>766.683188695145</v>
@@ -5285,43 +5285,43 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O14" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.161510599077</v>
+        <v>4156.161510599079</v>
       </c>
       <c r="T14" t="n">
-        <v>4156.161510599077</v>
+        <v>3953.532414632628</v>
       </c>
       <c r="U14" t="n">
-        <v>4156.161510599077</v>
+        <v>3700.063135423757</v>
       </c>
       <c r="V14" t="n">
-        <v>3825.098623255506</v>
+        <v>3369.000248080186</v>
       </c>
       <c r="W14" t="n">
-        <v>3475.749988059617</v>
+        <v>3016.231592810072</v>
       </c>
       <c r="X14" t="n">
-        <v>3102.284229798537</v>
+        <v>2812.534867831901</v>
       </c>
       <c r="Y14" t="n">
-        <v>2712.144897822725</v>
+        <v>2422.395535856089</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J15" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M15" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="N15" t="n">
-        <v>1551.25253785418</v>
+        <v>1428.524759781582</v>
       </c>
       <c r="O15" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P15" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q15" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>624.2282914070938</v>
+        <v>965.5747360632461</v>
       </c>
       <c r="C16" t="n">
-        <v>455.2921084791869</v>
+        <v>927.4327181005837</v>
       </c>
       <c r="D16" t="n">
-        <v>455.2921084791869</v>
+        <v>777.3160786882479</v>
       </c>
       <c r="E16" t="n">
-        <v>455.2921084791869</v>
+        <v>629.4029851058548</v>
       </c>
       <c r="F16" t="n">
-        <v>455.2921084791869</v>
+        <v>482.5130376079444</v>
       </c>
       <c r="G16" t="n">
         <v>315.1533397258816</v>
@@ -5431,22 +5431,22 @@
         <v>171.9869683152617</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8801783755866</v>
+        <v>153.8801783755867</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869776</v>
+        <v>396.9405013869777</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042033</v>
+        <v>763.5004667042034</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
       </c>
       <c r="N16" t="n">
-        <v>1553.248699711514</v>
+        <v>1553.248699711515</v>
       </c>
       <c r="O16" t="n">
         <v>1900.114228341785</v>
@@ -5467,19 +5467,19 @@
         <v>1798.760544521729</v>
       </c>
       <c r="U16" t="n">
-        <v>1798.760544521729</v>
+        <v>1509.676394306094</v>
       </c>
       <c r="V16" t="n">
-        <v>1544.076056315842</v>
+        <v>1254.991906100207</v>
       </c>
       <c r="W16" t="n">
-        <v>1254.658886278881</v>
+        <v>965.5747360632461</v>
       </c>
       <c r="X16" t="n">
-        <v>1026.669335380864</v>
+        <v>965.5747360632461</v>
       </c>
       <c r="Y16" t="n">
-        <v>805.8767562373336</v>
+        <v>965.5747360632461</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511625</v>
@@ -5513,10 +5513,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5528,7 +5528,7 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
         <v>3813.656640612704</v>
@@ -5543,19 +5543,19 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y17" t="n">
         <v>2476.13298385146</v>
@@ -5601,10 +5601,10 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>973.3971899277778</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.289737812102</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="O18" t="n">
         <v>1959.694692760353</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E19" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039798</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315384</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I19" t="n">
         <v>84.98040897511625</v>
@@ -5677,13 +5677,13 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
         <v>2087.878830313936</v>
@@ -5692,19 +5692,19 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S19" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
         <v>1664.992195357083</v>
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796665</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
         <v>2001.213713746739</v>
@@ -5765,7 +5765,7 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
         <v>3813.656640612704</v>
@@ -5774,28 +5774,28 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
         <v>519.5985603334505</v>
@@ -5838,10 +5838,10 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M21" t="n">
-        <v>973.3971899277778</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="N21" t="n">
-        <v>1551.25253785418</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O21" t="n">
         <v>1959.694692760353</v>
@@ -5905,16 +5905,16 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K22" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5969,16 +5969,16 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796681</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
         <v>84.98040897511625</v>
@@ -5987,10 +5987,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -6023,16 +6023,16 @@
         <v>3795.851627400163</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="24">
@@ -6060,7 +6060,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
         <v>84.98040897511625</v>
@@ -6069,16 +6069,16 @@
         <v>216.557510983586</v>
       </c>
       <c r="K24" t="n">
-        <v>216.557510983586</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L24" t="n">
-        <v>670.3561405779135</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M24" t="n">
-        <v>875.4343898857001</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.289737812102</v>
+        <v>1551.252537854181</v>
       </c>
       <c r="O24" t="n">
         <v>1959.694692760353</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477715</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G25" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
         <v>140.0574709897932</v>
@@ -6148,22 +6148,22 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
         <v>2529.521427597205</v>
@@ -6172,22 +6172,22 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254981</v>
@@ -6212,46 +6212,46 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076826</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T26" t="n">
         <v>4017.391409283565</v>
@@ -6297,34 +6297,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177173</v>
+        <v>89.89576342177175</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835861</v>
       </c>
       <c r="K27" t="n">
-        <v>388.0214583249808</v>
+        <v>519.5985603334507</v>
       </c>
       <c r="L27" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277783</v>
       </c>
       <c r="M27" t="n">
-        <v>850.6694118551798</v>
+        <v>973.3971899277783</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781582</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>1959.694692760352</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281988</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477724</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609053</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749449</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511623</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J28" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
         <v>857.3827676902787</v>
@@ -6394,7 +6394,7 @@
         <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
         <v>2087.878830313936</v>
@@ -6412,7 +6412,7 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
         <v>1887.747186237502</v>
@@ -6427,7 +6427,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6443,25 +6443,25 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162841</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076838</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K29" t="n">
         <v>766.683188695145</v>
@@ -6476,25 +6476,25 @@
         <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755814</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.09100792455</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V29" t="n">
         <v>3496.718237382061</v>
@@ -6534,22 +6534,22 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177178</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J30" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835861</v>
       </c>
       <c r="K30" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334507</v>
       </c>
       <c r="L30" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277783</v>
       </c>
       <c r="M30" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N30" t="n">
         <v>1662.137679823382</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502077</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477692</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609019</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039772</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315392</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749448</v>
       </c>
       <c r="H31" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897934</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J31" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254979</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216584</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796691</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162855</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511794</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076826</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951442</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851462</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177175</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J33" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835861</v>
       </c>
       <c r="K33" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334507</v>
       </c>
       <c r="L33" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277783</v>
       </c>
       <c r="M33" t="n">
         <v>1522.315654538068</v>
       </c>
       <c r="N33" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477717</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F34" t="n">
         <v>386.7245456315386</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U34" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6920,7 +6920,7 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
         <v>725.1782574796675</v>
@@ -6935,28 +6935,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R35" t="n">
         <v>4249.020448755811</v>
@@ -6990,52 +6990,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5579923844783</v>
+        <v>941.5579923844781</v>
       </c>
       <c r="C36" t="n">
-        <v>767.1049631033513</v>
+        <v>767.1049631033511</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1705534421001</v>
+        <v>618.1705534420998</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9330984366445</v>
+        <v>458.9330984366444</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3985404635295</v>
+        <v>312.3985404635294</v>
       </c>
       <c r="G36" t="n">
-        <v>176.4447347764803</v>
+        <v>176.4447347764802</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177173</v>
+        <v>89.89576342177172</v>
       </c>
       <c r="I36" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
-        <v>388.0214583249808</v>
+        <v>519.5985603334507</v>
       </c>
       <c r="L36" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277783</v>
       </c>
       <c r="M36" t="n">
-        <v>850.6694118551798</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7050,7 +7050,7 @@
         <v>2014.774593334977</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.622485103235</v>
+        <v>1779.622485103234</v>
       </c>
       <c r="W36" t="n">
         <v>1525.385128375033</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C37" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7108,25 +7108,25 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V37" t="n">
         <v>1664.992195357084</v>
@@ -7138,7 +7138,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112809</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497866</v>
       </c>
       <c r="D38" t="n">
         <v>1458.093420216584</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943809</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796674</v>
+        <v>725.17825747967</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162864</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511885</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050964</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P38" t="n">
         <v>3813.656640612705</v>
@@ -7196,28 +7196,28 @@
         <v>4142.90714476723</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755814</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.09100792455</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283568</v>
       </c>
       <c r="U38" t="n">
         <v>3795.851627400164</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382062</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437417</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851462</v>
+        <v>2476.132983851463</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177178</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511626</v>
+        <v>165.6257438946538</v>
       </c>
       <c r="K39" t="n">
-        <v>388.0214583249808</v>
+        <v>468.6667932445184</v>
       </c>
       <c r="L39" t="n">
-        <v>841.8200879193082</v>
+        <v>922.4654228388459</v>
       </c>
       <c r="M39" t="n">
-        <v>1390.738552529598</v>
+        <v>1471.383887449135</v>
       </c>
       <c r="N39" t="n">
-        <v>1959.694692760353</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O39" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.644190323788</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.862419750211</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477726</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609056</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039811</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315393</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G40" t="n">
         <v>251.2943450749444</v>
@@ -7327,28 +7327,28 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511629</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443611</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
         <v>1709.719201354974</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597206</v>
@@ -7363,7 +7363,7 @@
         <v>2144.90183912767</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
         <v>1664.992195357084</v>
@@ -7372,10 +7372,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216584</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796662</v>
+        <v>725.178257479669</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162853</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511765</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7433,28 +7433,28 @@
         <v>4142.90714476723</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177173</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J42" t="n">
-        <v>216.557510983586</v>
+        <v>165.6257438946538</v>
       </c>
       <c r="K42" t="n">
-        <v>519.5985603334505</v>
+        <v>468.6667932445184</v>
       </c>
       <c r="L42" t="n">
-        <v>973.3971899277778</v>
+        <v>922.4654228388459</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449135</v>
       </c>
       <c r="N42" t="n">
-        <v>2100.17100246447</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O42" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
         <v>2555.644190323788</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039803</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511623</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J43" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443616</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040894</v>
@@ -7594,7 +7594,7 @@
         <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
         <v>2144.901839127669</v>
@@ -7603,13 +7603,13 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C44" t="n">
         <v>1784.429621497864</v>
@@ -7631,67 +7631,67 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162841</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951452</v>
+        <v>766.683188695146</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755814</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.09100792455</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382062</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177173</v>
+        <v>89.89576342177178</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J45" t="n">
-        <v>216.557510983586</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="K45" t="n">
-        <v>519.5985603334505</v>
+        <v>388.0214583249809</v>
       </c>
       <c r="L45" t="n">
-        <v>973.3971899277778</v>
+        <v>841.8200879193084</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.315654538067</v>
+        <v>1390.738552529598</v>
       </c>
       <c r="N45" t="n">
-        <v>2100.17100246447</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O45" t="n">
-        <v>2168.542634771632</v>
+        <v>2474.998855404251</v>
       </c>
       <c r="P45" t="n">
         <v>2555.644190323788</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502115</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477731</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609058</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039811</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749448</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443611</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352546</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966199</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127671</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237504</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357086</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073045</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.05514813903129</v>
+        <v>83.05514813903234</v>
       </c>
       <c r="K2" t="n">
-        <v>73.22710870301773</v>
+        <v>73.2271087030193</v>
       </c>
       <c r="L2" t="n">
-        <v>53.57019660276694</v>
+        <v>53.57019660276887</v>
       </c>
       <c r="M2" t="n">
-        <v>27.61783484080081</v>
+        <v>27.61783484080297</v>
       </c>
       <c r="N2" t="n">
-        <v>23.40430777821069</v>
+        <v>23.40430777821291</v>
       </c>
       <c r="O2" t="n">
-        <v>35.56998502294149</v>
+        <v>35.56998502294357</v>
       </c>
       <c r="P2" t="n">
-        <v>65.20765509351875</v>
+        <v>65.20765509352054</v>
       </c>
       <c r="Q2" t="n">
-        <v>97.62757333244002</v>
+        <v>97.62757333244136</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>68.47500346606536</v>
+        <v>68.47500346606598</v>
       </c>
       <c r="K3" t="n">
-        <v>38.09042006267713</v>
+        <v>38.09042006267819</v>
       </c>
       <c r="L3" t="n">
-        <v>4.426824812798884</v>
+        <v>4.426824812800334</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>16.01368651428936</v>
+        <v>16.01368651429063</v>
       </c>
       <c r="Q3" t="n">
-        <v>61.12815607245199</v>
+        <v>61.12815607245284</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>68.84383790571779</v>
+        <v>68.84383790571843</v>
       </c>
       <c r="L4" t="n">
-        <v>57.88853394862269</v>
+        <v>57.88853394862352</v>
       </c>
       <c r="M4" t="n">
-        <v>57.7441475136262</v>
+        <v>57.74414751362707</v>
       </c>
       <c r="N4" t="n">
-        <v>48.43422589577503</v>
+        <v>48.43422589577587</v>
       </c>
       <c r="O4" t="n">
-        <v>65.25511855533384</v>
+        <v>65.25511855533462</v>
       </c>
       <c r="P4" t="n">
-        <v>75.09154339162546</v>
+        <v>75.09154339162615</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>61.31059319219425</v>
+        <v>98.30420645794972</v>
       </c>
       <c r="K5" t="n">
-        <v>77.63127079784317</v>
+        <v>40.6376575320877</v>
       </c>
       <c r="L5" t="n">
-        <v>50.13371393458539</v>
+        <v>38.35767532040245</v>
       </c>
       <c r="M5" t="n">
-        <v>19.62517633455613</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5.592398317016421</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>28.36594393961252</v>
+        <v>65.35955720536799</v>
       </c>
       <c r="Q5" t="n">
         <v>69.96098256656427</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>92.48560745376842</v>
+        <v>55.49199418801295</v>
       </c>
       <c r="L7" t="n">
-        <v>40.80277086886174</v>
+        <v>76.3016926895362</v>
       </c>
       <c r="M7" t="n">
-        <v>75.22852776744742</v>
+        <v>76.72321921252843</v>
       </c>
       <c r="N7" t="n">
         <v>67.84164312865681</v>
       </c>
       <c r="O7" t="n">
-        <v>49.01142011066445</v>
+        <v>86.00503337641992</v>
       </c>
       <c r="P7" t="n">
-        <v>98.18586645234612</v>
+        <v>61.19225318659065</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>56.36325065172204</v>
+        <v>56.36325065172291</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9757828529239418</v>
+        <v>0.9757828529241124</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>23.23168261818572</v>
+        <v>23.2316826181858</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>22.19986892380267</v>
       </c>
       <c r="L10" t="n">
-        <v>155.3190545659416</v>
+        <v>155.3190545659415</v>
       </c>
       <c r="M10" t="n">
-        <v>151.9300289740654</v>
+        <v>151.9300289740653</v>
       </c>
       <c r="N10" t="n">
-        <v>144.1165101169798</v>
+        <v>140.3539597673539</v>
       </c>
       <c r="O10" t="n">
-        <v>74.73521859540678</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>26.53509868619513</v>
+        <v>26.53509868619521</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-1.222133505507372e-12</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-3.026912054338027e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>181.4033729522326</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.14819024477578</v>
+        <v>14.14819024477579</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>165.9652059298807</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.34478796944504</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.0418188881337</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>42.79580459291277</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>175.5432231049755</v>
       </c>
     </row>
     <row r="5">
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>335.5082818697908</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>236.6825798705085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>122.0017665607243</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>187.6205372139425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067863</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167828</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>3.385819873482831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>168.0713429500802</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>129.486223315592</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>26.94871983746981</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1933087134791</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3.893774191965349e-12</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>3.943512183468556e-12</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>115963.2798289142</v>
+        <v>115963.2798289143</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26320,22 +26320,22 @@
         <v>123156.2654796425</v>
       </c>
       <c r="E2" t="n">
-        <v>102299.1296912763</v>
+        <v>102299.1296912762</v>
       </c>
       <c r="F2" t="n">
-        <v>115011.4772926965</v>
+        <v>115011.4772926966</v>
       </c>
       <c r="G2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796427</v>
       </c>
       <c r="H2" t="n">
         <v>123156.2654796427</v>
       </c>
       <c r="I2" t="n">
+        <v>123156.2654796426</v>
+      </c>
+      <c r="J2" t="n">
         <v>123156.2654796425</v>
-      </c>
-      <c r="J2" t="n">
-        <v>123156.2654796426</v>
       </c>
       <c r="K2" t="n">
         <v>123156.2654796426</v>
@@ -26353,7 +26353,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>276743.5187596356</v>
+        <v>276743.5187596327</v>
       </c>
       <c r="C3" t="n">
-        <v>69983.72346881332</v>
+        <v>69983.72346881611</v>
       </c>
       <c r="D3" t="n">
-        <v>173403.8562159922</v>
+        <v>173403.8562159918</v>
       </c>
       <c r="E3" t="n">
-        <v>667257.5729881105</v>
+        <v>667257.5729881108</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963077</v>
+        <v>215052.109696308</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177132</v>
+        <v>25288.16188177112</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>9520.972258981012</v>
+        <v>9520.972258980939</v>
       </c>
       <c r="L3" t="n">
-        <v>55690.75082754756</v>
+        <v>55690.75082754741</v>
       </c>
       <c r="M3" t="n">
-        <v>168033.9493212428</v>
+        <v>168033.949321243</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578626</v>
+        <v>56542.29359578645</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331427.154768381</v>
+        <v>331427.1547683818</v>
       </c>
       <c r="C4" t="n">
         <v>338970.8325859631</v>
       </c>
       <c r="D4" t="n">
-        <v>286646.5724168832</v>
+        <v>286646.5724168833</v>
       </c>
       <c r="E4" t="n">
         <v>10380.34706710378</v>
@@ -26430,34 +26430,34 @@
         <v>10499.8219988023</v>
       </c>
       <c r="G4" t="n">
-        <v>41569.70708102232</v>
+        <v>41569.70708102231</v>
       </c>
       <c r="H4" t="n">
+        <v>41569.7070810223</v>
+      </c>
+      <c r="I4" t="n">
         <v>41569.70708102231</v>
       </c>
-      <c r="I4" t="n">
-        <v>41569.70708102228</v>
-      </c>
       <c r="J4" t="n">
-        <v>41569.70708102226</v>
+        <v>41569.70708102222</v>
       </c>
       <c r="K4" t="n">
-        <v>41569.70708102229</v>
+        <v>41569.70708102212</v>
       </c>
       <c r="L4" t="n">
-        <v>41569.70708102227</v>
+        <v>41569.70708102225</v>
       </c>
       <c r="M4" t="n">
-        <v>41569.70708102224</v>
+        <v>41569.70708102219</v>
       </c>
       <c r="N4" t="n">
-        <v>41569.70708102224</v>
+        <v>41569.7070810222</v>
       </c>
       <c r="O4" t="n">
-        <v>41569.70708102224</v>
+        <v>41569.70708102221</v>
       </c>
       <c r="P4" t="n">
-        <v>41569.70708102231</v>
+        <v>41569.70708102215</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39888.42121034072</v>
+        <v>39888.42121034065</v>
       </c>
       <c r="C5" t="n">
         <v>43526.93507027924</v>
       </c>
       <c r="D5" t="n">
-        <v>54294.69533421406</v>
+        <v>54294.69533421403</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060697</v>
+        <v>92448.996000607</v>
       </c>
       <c r="G5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="I5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="K5" t="n">
+        <v>95106.43410215533</v>
+      </c>
+      <c r="L5" t="n">
         <v>95106.4341021553</v>
-      </c>
-      <c r="L5" t="n">
-        <v>95106.43410215531</v>
       </c>
       <c r="M5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="N5" t="n">
+        <v>95106.43410215533</v>
+      </c>
+      <c r="O5" t="n">
         <v>95106.43410215531</v>
       </c>
-      <c r="O5" t="n">
-        <v>95106.43410215528</v>
-      </c>
       <c r="P5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215533</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-532095.8149094431</v>
+        <v>-532215.6980036198</v>
       </c>
       <c r="C6" t="n">
-        <v>-329325.2256454132</v>
+        <v>-329325.225645416</v>
       </c>
       <c r="D6" t="n">
-        <v>-391188.858487447</v>
+        <v>-391188.8584874467</v>
       </c>
       <c r="E6" t="n">
-        <v>-649645.1309253314</v>
+        <v>-649992.7498551378</v>
       </c>
       <c r="F6" t="n">
-        <v>-202989.4504030204</v>
+        <v>-203125.1968728032</v>
       </c>
       <c r="G6" t="n">
-        <v>-38808.03758530643</v>
+        <v>-38808.03758530605</v>
       </c>
       <c r="H6" t="n">
         <v>-13519.87570353494</v>
       </c>
       <c r="I6" t="n">
-        <v>-13519.87570353506</v>
+        <v>-13519.87570353504</v>
       </c>
       <c r="J6" t="n">
-        <v>-13519.87570353497</v>
+        <v>-13519.87570353498</v>
       </c>
       <c r="K6" t="n">
-        <v>-23040.84796251604</v>
+        <v>-23040.84796251575</v>
       </c>
       <c r="L6" t="n">
-        <v>-69210.62653108264</v>
+        <v>-69210.62653108242</v>
       </c>
       <c r="M6" t="n">
-        <v>-181553.8250247777</v>
+        <v>-181553.8250247778</v>
       </c>
       <c r="N6" t="n">
-        <v>-70062.16929932137</v>
+        <v>-70062.16929932145</v>
       </c>
       <c r="O6" t="n">
-        <v>-13519.875703535</v>
+        <v>-13519.87570353498</v>
       </c>
       <c r="P6" t="n">
-        <v>-13519.87570353504</v>
+        <v>-13519.87570353465</v>
       </c>
     </row>
   </sheetData>
@@ -26698,22 +26698,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I2" t="n">
         <v>31.61020235221391</v>
       </c>
       <c r="J2" t="n">
+        <v>31.61020235221389</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221373</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.6102023522139</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.6102023522139</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
         <v>31.61020235221389</v>
@@ -26722,10 +26722,10 @@
         <v>31.61020235221392</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>287.1936335018681</v>
+        <v>287.193633501865</v>
       </c>
       <c r="C3" t="n">
         <v>350.9230909963904</v>
       </c>
       <c r="D3" t="n">
-        <v>509.8291662011504</v>
+        <v>509.82916620115</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26793,13 +26793,13 @@
         <v>36.99361326575547</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1187419577134</v>
+        <v>157.1187419577132</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>287.1936335018681</v>
+        <v>287.193633501865</v>
       </c>
       <c r="C3" t="n">
-        <v>63.72945749452231</v>
+        <v>63.72945749452538</v>
       </c>
       <c r="D3" t="n">
-        <v>158.90607520476</v>
+        <v>158.9060752047596</v>
       </c>
       <c r="E3" t="n">
-        <v>579.9475343921479</v>
+        <v>579.9475343921483</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268245</v>
+        <v>188.3831700268247</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,16 +27015,16 @@
         <v>36.99361326575547</v>
       </c>
       <c r="D4" t="n">
-        <v>120.1251286919579</v>
+        <v>120.1251286919577</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2827134445795</v>
+        <v>674.2827134445796</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866595</v>
+        <v>230.8536567866601</v>
       </c>
       <c r="G4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>36.9936132657557</v>
+        <v>36.99361326575593</v>
       </c>
       <c r="L4" t="n">
-        <v>120.1251286919581</v>
+        <v>120.1251286919573</v>
       </c>
       <c r="M4" t="n">
-        <v>674.282713444579</v>
+        <v>674.2827134445794</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866599</v>
+        <v>230.8536567866607</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>36.99361326575547</v>
       </c>
       <c r="L4" t="n">
-        <v>120.1251286919579</v>
+        <v>120.1251286919577</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2827134445795</v>
+        <v>674.2827134445796</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866595</v>
+        <v>230.8536567866601</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>200.5269971200292</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>327.6507948832003</v>
+        <v>327.6507948832004</v>
       </c>
       <c r="I2" t="n">
-        <v>165.9652059298802</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.34478796944427</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>182.7108236629335</v>
+        <v>182.7108236629338</v>
       </c>
       <c r="T2" t="n">
-        <v>218.0418188881337</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2532891262078</v>
@@ -27473,10 +27473,10 @@
         <v>136.7257799137915</v>
       </c>
       <c r="H3" t="n">
-        <v>106.2694029065803</v>
+        <v>106.2694029065804</v>
       </c>
       <c r="I3" t="n">
-        <v>68.12804772887107</v>
+        <v>68.12804772887129</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>61.80393721063892</v>
+        <v>61.80393721063933</v>
       </c>
       <c r="S3" t="n">
-        <v>160.2089726332679</v>
+        <v>160.208972633268</v>
       </c>
       <c r="T3" t="n">
-        <v>197.6748140798384</v>
+        <v>197.6748140798385</v>
       </c>
       <c r="U3" t="n">
         <v>225.9007414724604</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,13 +27552,13 @@
         <v>167.4730891996849</v>
       </c>
       <c r="H4" t="n">
-        <v>157.6226581867047</v>
+        <v>157.6226581867048</v>
       </c>
       <c r="I4" t="n">
-        <v>139.8761054252226</v>
+        <v>139.8761054252227</v>
       </c>
       <c r="J4" t="n">
-        <v>56.74434589136084</v>
+        <v>56.74434589136123</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.7958045929123</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>154.0071666017557</v>
+        <v>154.007166601756</v>
       </c>
       <c r="S4" t="n">
-        <v>214.9911849972496</v>
+        <v>214.9911849972497</v>
       </c>
       <c r="T4" t="n">
         <v>225.7327860226114</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>43.04143024711931</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>345.7402283977251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>328.2792785052521</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>388.1840625979112</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>325.0269986759007</v>
@@ -27664,10 +27664,10 @@
         <v>24.25772531940623</v>
       </c>
       <c r="S5" t="n">
-        <v>176.8726929587871</v>
+        <v>139.8790796930316</v>
       </c>
       <c r="T5" t="n">
-        <v>216.9203085356421</v>
+        <v>205.1043711335533</v>
       </c>
       <c r="U5" t="n">
         <v>251.2327932202799</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>349.2443253902981</v>
       </c>
     </row>
     <row r="6">
@@ -27698,19 +27698,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>110.4514522988833</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>120.6514671896455</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5887014580486</v>
+        <v>104.0047268935711</v>
       </c>
       <c r="H6" t="n">
-        <v>104.9455136103262</v>
+        <v>67.95190034457069</v>
       </c>
       <c r="I6" t="n">
         <v>63.40846054649371</v>
@@ -27746,13 +27746,13 @@
         <v>157.6628004399726</v>
       </c>
       <c r="T6" t="n">
-        <v>197.1222917077869</v>
+        <v>160.1286784420314</v>
       </c>
       <c r="U6" t="n">
         <v>225.8917231530036</v>
       </c>
       <c r="V6" t="n">
-        <v>200.2166125849479</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>130.2532078328724</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>111.6218597524569</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>130.9532359081603</v>
+        <v>167.3581672271538</v>
       </c>
       <c r="H7" t="n">
         <v>156.6008973763827</v>
@@ -27795,7 +27795,7 @@
         <v>136.4200882876507</v>
       </c>
       <c r="J7" t="n">
-        <v>48.61936243341167</v>
+        <v>11.6257491676562</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>250.1180670175976</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>188.7160421232817</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>197.5642996629698</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>249.7573037839981</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>256.1344310701809</v>
+        <v>256.1344310701811</v>
       </c>
       <c r="H8" t="n">
-        <v>161.3659578530988</v>
+        <v>318.4846998108123</v>
       </c>
       <c r="I8" t="n">
-        <v>131.4600546760547</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>162.3156188332455</v>
       </c>
       <c r="T8" t="n">
-        <v>214.1238810212347</v>
+        <v>214.1238810212348</v>
       </c>
       <c r="U8" t="n">
         <v>251.1816877488572</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>252.4640754816245</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>250.1882719192624</v>
       </c>
     </row>
     <row r="9">
@@ -27932,16 +27932,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>44.66669703377232</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0.5263384976877603</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.2469034849667</v>
@@ -27950,7 +27950,7 @@
         <v>101.6444647650348</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>51.64041629783934</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,22 +27980,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.3140530013673</v>
+        <v>151.3140530013674</v>
       </c>
       <c r="T9" t="n">
         <v>195.7446060180399</v>
       </c>
       <c r="U9" t="n">
-        <v>68.75049448653485</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V9" t="n">
-        <v>75.68184519171189</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>94.57624120320622</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>151.0948055041767</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.71323822422391</v>
+        <v>22.71323822422411</v>
       </c>
       <c r="C10" t="n">
-        <v>157.3338933779189</v>
+        <v>10.12807914091465</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.07161528826</v>
@@ -28029,10 +28029,10 @@
         <v>154.0531901378539</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>127.8026899798254</v>
       </c>
       <c r="J10" t="n">
-        <v>28.36014035361792</v>
+        <v>28.36014035361796</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>9.177839155320726</v>
       </c>
       <c r="R10" t="n">
         <v>135.9554396389582</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>224.2372465561139</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.46591139438141</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605494</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605494</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="23">
@@ -29056,7 +29056,7 @@
         <v>31.61020235221391</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>31.61020235221391</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221338</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W23" t="n">
         <v>31.61020235221391</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605488</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="C29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="D29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="E29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="F29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="G29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="H29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605488</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="T29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="U29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="V29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="W29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="X29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="C31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="D31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="E31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="F31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="G31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="H31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="I31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="J31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="K31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="L31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="M31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="N31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="O31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="P31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="R31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="S31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="T31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="U31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="V31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="W31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="X31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221373</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605325</v>
+        <v>12.38037836605488</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>31.61020235221389</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605488</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>31.61020235221392</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221235</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G38" t="n">
         <v>31.61020235221392</v>
@@ -30241,7 +30241,7 @@
         <v>31.61020235221392</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605234</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605351</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605488</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221374</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.154547270359268</v>
+        <v>1.154547270359255</v>
       </c>
       <c r="H2" t="n">
-        <v>11.82400723256685</v>
+        <v>11.82400723256673</v>
       </c>
       <c r="I2" t="n">
-        <v>44.51068364052571</v>
+        <v>44.51068364052524</v>
       </c>
       <c r="J2" t="n">
-        <v>97.990756387655</v>
+        <v>97.99075638765395</v>
       </c>
       <c r="K2" t="n">
-        <v>146.8627423419628</v>
+        <v>146.8627423419613</v>
       </c>
       <c r="L2" t="n">
-        <v>182.1962183672203</v>
+        <v>182.1962183672184</v>
       </c>
       <c r="M2" t="n">
-        <v>202.7283983864719</v>
+        <v>202.7283983864698</v>
       </c>
       <c r="N2" t="n">
-        <v>206.0087558183802</v>
+        <v>206.008755818378</v>
       </c>
       <c r="O2" t="n">
-        <v>194.5282263987452</v>
+        <v>194.5282263987432</v>
       </c>
       <c r="P2" t="n">
-        <v>166.0253406617508</v>
+        <v>166.025340661749</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.6781165420095</v>
+        <v>124.6781165420081</v>
       </c>
       <c r="R2" t="n">
-        <v>72.52432997170541</v>
+        <v>72.52432997170465</v>
       </c>
       <c r="S2" t="n">
-        <v>26.30924592331184</v>
+        <v>26.30924592331156</v>
       </c>
       <c r="T2" t="n">
-        <v>5.054030675997697</v>
+        <v>5.054030675997644</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0923637816287414</v>
+        <v>0.09236378162874041</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,22 +31118,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6177372494191125</v>
+        <v>0.6177372494191059</v>
       </c>
       <c r="H3" t="n">
-        <v>5.966041329916166</v>
+        <v>5.966041329916102</v>
       </c>
       <c r="I3" t="n">
-        <v>21.26858512254401</v>
+        <v>21.26858512254378</v>
       </c>
       <c r="J3" t="n">
-        <v>58.36262320060133</v>
+        <v>58.36262320060071</v>
       </c>
       <c r="K3" t="n">
-        <v>99.75101891168187</v>
+        <v>99.7510189116808</v>
       </c>
       <c r="L3" t="n">
-        <v>134.1275549670753</v>
+        <v>134.1275549670738</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -31145,22 +31145,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>117.9607209000409</v>
+        <v>117.9607209000396</v>
       </c>
       <c r="Q3" t="n">
-        <v>78.85361801356953</v>
+        <v>78.85361801356868</v>
       </c>
       <c r="R3" t="n">
-        <v>38.35389694200421</v>
+        <v>38.3538969420038</v>
       </c>
       <c r="S3" t="n">
-        <v>11.47419847056991</v>
+        <v>11.47419847056979</v>
       </c>
       <c r="T3" t="n">
-        <v>2.489914614983176</v>
+        <v>2.489914614983149</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04064060851441531</v>
+        <v>0.04064060851441488</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5178901587738604</v>
+        <v>0.5178901587738549</v>
       </c>
       <c r="H4" t="n">
-        <v>4.604514320734872</v>
+        <v>4.604514320734822</v>
       </c>
       <c r="I4" t="n">
-        <v>15.57436950203573</v>
+        <v>15.57436950203557</v>
       </c>
       <c r="J4" t="n">
-        <v>36.61483422531193</v>
+        <v>36.61483422531154</v>
       </c>
       <c r="K4" t="n">
-        <v>60.16942026481759</v>
+        <v>60.16942026481694</v>
       </c>
       <c r="L4" t="n">
-        <v>76.99614233261559</v>
+        <v>76.99614233261477</v>
       </c>
       <c r="M4" t="n">
-        <v>81.18163643397885</v>
+        <v>81.18163643397799</v>
       </c>
       <c r="N4" t="n">
-        <v>79.25131856945816</v>
+        <v>79.25131856945733</v>
       </c>
       <c r="O4" t="n">
-        <v>73.20141989650895</v>
+        <v>73.20141989650817</v>
       </c>
       <c r="P4" t="n">
-        <v>62.63646065752215</v>
+        <v>62.63646065752148</v>
       </c>
       <c r="Q4" t="n">
-        <v>43.36623865878208</v>
+        <v>43.36623865878161</v>
       </c>
       <c r="R4" t="n">
-        <v>23.28622477541375</v>
+        <v>23.2862247754135</v>
       </c>
       <c r="S4" t="n">
-        <v>9.025413039722636</v>
+        <v>9.02541303972254</v>
       </c>
       <c r="T4" t="n">
-        <v>2.21280340567013</v>
+        <v>2.212803405670106</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02824855411493787</v>
+        <v>0.02824855411493757</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.049564487240804</v>
+        <v>2.049564487240803</v>
       </c>
       <c r="H8" t="n">
-        <v>20.99010230495489</v>
+        <v>20.99010230495487</v>
       </c>
       <c r="I8" t="n">
-        <v>79.01583489435119</v>
+        <v>79.01583489435112</v>
       </c>
       <c r="J8" t="n">
-        <v>173.9542238989544</v>
+        <v>173.9542238989542</v>
       </c>
       <c r="K8" t="n">
-        <v>260.7122886438577</v>
+        <v>260.7122886438574</v>
       </c>
       <c r="L8" t="n">
-        <v>323.4366478202535</v>
+        <v>323.4366478202533</v>
       </c>
       <c r="M8" t="n">
-        <v>359.8855902702221</v>
+        <v>359.8855902702218</v>
       </c>
       <c r="N8" t="n">
-        <v>365.7089153695951</v>
+        <v>365.7089153695948</v>
       </c>
       <c r="O8" t="n">
-        <v>345.3285584995943</v>
+        <v>345.3285584995941</v>
       </c>
       <c r="P8" t="n">
-        <v>294.7299352208369</v>
+        <v>294.7299352208367</v>
       </c>
       <c r="Q8" t="n">
-        <v>221.3299070215255</v>
+        <v>221.3299070215254</v>
       </c>
       <c r="R8" t="n">
-        <v>128.7459552216403</v>
+        <v>128.7459552216402</v>
       </c>
       <c r="S8" t="n">
-        <v>46.70445075299988</v>
+        <v>46.70445075299983</v>
       </c>
       <c r="T8" t="n">
-        <v>8.971968542896624</v>
+        <v>8.971968542896619</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1639651589792643</v>
+        <v>0.1639651589792642</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.096613678243984</v>
+        <v>1.096613678243983</v>
       </c>
       <c r="H9" t="n">
-        <v>10.59097947146164</v>
+        <v>10.59097947146163</v>
       </c>
       <c r="I9" t="n">
-        <v>37.75621655357577</v>
+        <v>37.75621655357574</v>
       </c>
       <c r="J9" t="n">
-        <v>103.605944048481</v>
+        <v>103.6059440484809</v>
       </c>
       <c r="K9" t="n">
-        <v>177.0790604908279</v>
+        <v>177.0790604908277</v>
       </c>
       <c r="L9" t="n">
-        <v>238.1046497432826</v>
+        <v>238.1046497432824</v>
       </c>
       <c r="M9" t="n">
-        <v>277.856895579627</v>
+        <v>277.8568955796267</v>
       </c>
       <c r="N9" t="n">
-        <v>285.2109408166228</v>
+        <v>285.2109408166226</v>
       </c>
       <c r="O9" t="n">
-        <v>260.9122903671114</v>
+        <v>260.9122903671112</v>
       </c>
       <c r="P9" t="n">
-        <v>209.4051154534499</v>
+        <v>209.4051154534498</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>139.9817740860214</v>
       </c>
       <c r="R9" t="n">
-        <v>68.08624223342913</v>
+        <v>68.08624223342909</v>
       </c>
       <c r="S9" t="n">
-        <v>20.36911810247048</v>
+        <v>20.36911810247046</v>
       </c>
       <c r="T9" t="n">
-        <v>4.420122676781671</v>
+        <v>4.420122676781667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07214563672657792</v>
+        <v>0.07214563672657787</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9193640701987957</v>
+        <v>0.9193640701987951</v>
       </c>
       <c r="H10" t="n">
-        <v>8.173982369585662</v>
+        <v>8.173982369585657</v>
       </c>
       <c r="I10" t="n">
-        <v>27.64778494743289</v>
+        <v>27.64778494743286</v>
       </c>
       <c r="J10" t="n">
-        <v>64.99903976305485</v>
+        <v>64.99903976305481</v>
       </c>
       <c r="K10" t="n">
-        <v>106.8133892467328</v>
+        <v>106.8133892467327</v>
       </c>
       <c r="L10" t="n">
-        <v>136.6843636730101</v>
+        <v>136.68436367301</v>
       </c>
       <c r="M10" t="n">
-        <v>144.114496931253</v>
+        <v>144.1144969312529</v>
       </c>
       <c r="N10" t="n">
-        <v>140.6877763059667</v>
+        <v>140.6877763059666</v>
       </c>
       <c r="O10" t="n">
-        <v>129.947932395008</v>
+        <v>129.9479323950079</v>
       </c>
       <c r="P10" t="n">
-        <v>111.1929053629525</v>
+        <v>111.1929053629524</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.98420409637372</v>
+        <v>76.98420409637366</v>
       </c>
       <c r="R10" t="n">
-        <v>41.3379517382113</v>
+        <v>41.33795173821127</v>
       </c>
       <c r="S10" t="n">
-        <v>16.02200838700992</v>
+        <v>16.0220083870099</v>
       </c>
       <c r="T10" t="n">
-        <v>3.928191936303945</v>
+        <v>3.928191936303941</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05014713110175256</v>
+        <v>0.05014713110175251</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I14" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L14" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R14" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32029,7 +32029,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H15" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K15" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>715.0339827160628</v>
+        <v>591.0665301174793</v>
       </c>
       <c r="O15" t="n">
-        <v>555.1640776830027</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P15" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691326</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T15" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,10 +32154,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L16" t="n">
         <v>342.6725659692048</v>
@@ -32169,22 +32169,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P16" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R16" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32321,13 +32321,13 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N18" t="n">
-        <v>616.081659441237</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578284</v>
+        <v>584.3932527497834</v>
       </c>
       <c r="P18" t="n">
         <v>524.9860796892351</v>
@@ -32558,13 +32558,13 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>626.873981279922</v>
       </c>
       <c r="N21" t="n">
-        <v>715.033982716063</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>555.1640776830025</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P21" t="n">
         <v>524.9860796892351</v>
@@ -32701,46 +32701,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H23" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I23" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R23" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S23" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T23" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,34 +32780,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H24" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L24" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>349.2837806975603</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578284</v>
+        <v>555.164077683002</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32862,7 +32862,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838147</v>
@@ -32871,13 +32871,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O25" t="n">
         <v>325.7840929246177</v>
@@ -32892,10 +32892,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171346</v>
       </c>
       <c r="H26" t="n">
-        <v>52.62293376879731</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I26" t="n">
         <v>198.095511204351</v>
@@ -32947,28 +32947,28 @@
         <v>436.1094324383707</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171638</v>
+        <v>653.614989517164</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869755</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654302</v>
       </c>
       <c r="N26" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117595</v>
       </c>
       <c r="O26" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565681</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829628</v>
+        <v>738.898440582963</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972014</v>
       </c>
       <c r="R26" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581562</v>
       </c>
       <c r="S26" t="n">
         <v>117.0897208110797</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H27" t="n">
         <v>26.55196259533502</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781105</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K27" t="n">
         <v>443.9435090247272</v>
       </c>
       <c r="L27" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155586</v>
       </c>
       <c r="M27" t="n">
-        <v>151.0727449683532</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160632</v>
+        <v>616.0816594412355</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578285</v>
+        <v>654.1164009578287</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892352</v>
+        <v>524.9860796892353</v>
       </c>
       <c r="Q27" t="n">
         <v>350.9392912691328</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486999</v>
       </c>
       <c r="T27" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U27" t="n">
         <v>0.1808716798047345</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H28" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I28" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051425</v>
       </c>
       <c r="J28" t="n">
         <v>162.9549067838147</v>
@@ -33111,16 +33111,16 @@
         <v>342.6725659692049</v>
       </c>
       <c r="M28" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N28" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O28" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P28" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q28" t="n">
         <v>193.0021404636386</v>
@@ -33129,10 +33129,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925538</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171346</v>
       </c>
       <c r="H29" t="n">
-        <v>52.62293376879731</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I29" t="n">
         <v>198.095511204351</v>
@@ -33184,28 +33184,28 @@
         <v>436.1094324383707</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171638</v>
+        <v>653.614989517164</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869755</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654302</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117595</v>
       </c>
       <c r="O29" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565681</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829628</v>
+        <v>738.898440582963</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972014</v>
       </c>
       <c r="R29" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581562</v>
       </c>
       <c r="S29" t="n">
         <v>117.0897208110797</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H30" t="n">
         <v>26.55196259533502</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781105</v>
       </c>
       <c r="J30" t="n">
         <v>259.7437903115857</v>
@@ -33266,19 +33266,19 @@
         <v>443.9435090247272</v>
       </c>
       <c r="L30" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155586</v>
       </c>
       <c r="M30" t="n">
-        <v>254.1392278303028</v>
+        <v>696.5971294879672</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160632</v>
+        <v>272.5760810583981</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578285</v>
+        <v>654.1164009578287</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892352</v>
+        <v>524.9860796892353</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,10 +33287,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486999</v>
       </c>
       <c r="T30" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U30" t="n">
         <v>0.1808716798047345</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H31" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I31" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051425</v>
       </c>
       <c r="J31" t="n">
         <v>162.9549067838147</v>
@@ -33348,16 +33348,16 @@
         <v>342.6725659692049</v>
       </c>
       <c r="M31" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N31" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O31" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P31" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q31" t="n">
         <v>193.0021404636386</v>
@@ -33366,10 +33366,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925538</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171346</v>
       </c>
       <c r="H32" t="n">
-        <v>52.62293376879731</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I32" t="n">
         <v>198.095511204351</v>
@@ -33421,28 +33421,28 @@
         <v>436.1094324383707</v>
       </c>
       <c r="K32" t="n">
-        <v>653.6149895171638</v>
+        <v>653.614989517164</v>
       </c>
       <c r="L32" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869755</v>
       </c>
       <c r="M32" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654302</v>
       </c>
       <c r="N32" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117595</v>
       </c>
       <c r="O32" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565681</v>
       </c>
       <c r="P32" t="n">
-        <v>738.8984405829628</v>
+        <v>738.898440582963</v>
       </c>
       <c r="Q32" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972014</v>
       </c>
       <c r="R32" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581562</v>
       </c>
       <c r="S32" t="n">
         <v>117.0897208110797</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H33" t="n">
         <v>26.55196259533502</v>
       </c>
       <c r="I33" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781105</v>
       </c>
       <c r="J33" t="n">
         <v>259.7437903115857</v>
@@ -33503,31 +33503,31 @@
         <v>443.9435090247272</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155586</v>
       </c>
       <c r="M33" t="n">
-        <v>696.5971294879671</v>
+        <v>696.5971294879672</v>
       </c>
       <c r="N33" t="n">
-        <v>548.1235910649142</v>
+        <v>715.0339827160633</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750686</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486999</v>
       </c>
       <c r="T33" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U33" t="n">
         <v>0.1808716798047345</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H34" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I34" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051425</v>
       </c>
       <c r="J34" t="n">
         <v>162.9549067838147</v>
@@ -33585,16 +33585,16 @@
         <v>342.6725659692049</v>
       </c>
       <c r="M34" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N34" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O34" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P34" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q34" t="n">
         <v>193.0021404636386</v>
@@ -33603,10 +33603,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S34" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T34" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925538</v>
       </c>
       <c r="U34" t="n">
         <v>0.1257206430118155</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171346</v>
       </c>
       <c r="H35" t="n">
-        <v>52.62293376879731</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I35" t="n">
         <v>198.095511204351</v>
@@ -33658,28 +33658,28 @@
         <v>436.1094324383707</v>
       </c>
       <c r="K35" t="n">
-        <v>653.6149895171638</v>
+        <v>653.614989517164</v>
       </c>
       <c r="L35" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869755</v>
       </c>
       <c r="M35" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654302</v>
       </c>
       <c r="N35" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117595</v>
       </c>
       <c r="O35" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565681</v>
       </c>
       <c r="P35" t="n">
-        <v>738.8984405829628</v>
+        <v>738.898440582963</v>
       </c>
       <c r="Q35" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972014</v>
       </c>
       <c r="R35" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581562</v>
       </c>
       <c r="S35" t="n">
         <v>117.0897208110797</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H36" t="n">
         <v>26.55196259533502</v>
       </c>
       <c r="I36" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781105</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K36" t="n">
         <v>443.9435090247272</v>
       </c>
       <c r="L36" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155586</v>
       </c>
       <c r="M36" t="n">
-        <v>151.0727449683532</v>
+        <v>696.5971294879672</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160632</v>
+        <v>715.0339827160633</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578285</v>
+        <v>602.6701715750686</v>
       </c>
       <c r="P36" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486999</v>
       </c>
       <c r="T36" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U36" t="n">
         <v>0.1808716798047345</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H37" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I37" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051425</v>
       </c>
       <c r="J37" t="n">
         <v>162.9549067838147</v>
@@ -33822,16 +33822,16 @@
         <v>342.6725659692049</v>
       </c>
       <c r="M37" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N37" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O37" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P37" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q37" t="n">
         <v>193.0021404636386</v>
@@ -33840,10 +33840,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S37" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T37" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925538</v>
       </c>
       <c r="U37" t="n">
         <v>0.1257206430118155</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171346</v>
       </c>
       <c r="H38" t="n">
-        <v>52.62293376879731</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I38" t="n">
         <v>198.095511204351</v>
@@ -33895,28 +33895,28 @@
         <v>436.1094324383707</v>
       </c>
       <c r="K38" t="n">
-        <v>653.6149895171638</v>
+        <v>653.614989517164</v>
       </c>
       <c r="L38" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869755</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654302</v>
       </c>
       <c r="N38" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117595</v>
       </c>
       <c r="O38" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565681</v>
       </c>
       <c r="P38" t="n">
-        <v>738.8984405829628</v>
+        <v>738.898440582963</v>
       </c>
       <c r="Q38" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972014</v>
       </c>
       <c r="R38" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581562</v>
       </c>
       <c r="S38" t="n">
         <v>117.0897208110797</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H39" t="n">
         <v>26.55196259533502</v>
       </c>
       <c r="I39" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781105</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>208.2975609288258</v>
       </c>
       <c r="K39" t="n">
         <v>443.9435090247272</v>
       </c>
       <c r="L39" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155586</v>
       </c>
       <c r="M39" t="n">
-        <v>696.5971294879671</v>
+        <v>696.5971294879672</v>
       </c>
       <c r="N39" t="n">
-        <v>706.0448840335908</v>
+        <v>715.0339827160633</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578287</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486999</v>
       </c>
       <c r="T39" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U39" t="n">
         <v>0.1808716798047345</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H40" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I40" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051425</v>
       </c>
       <c r="J40" t="n">
         <v>162.9549067838147</v>
@@ -34059,16 +34059,16 @@
         <v>342.6725659692049</v>
       </c>
       <c r="M40" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N40" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O40" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P40" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q40" t="n">
         <v>193.0021404636386</v>
@@ -34077,10 +34077,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S40" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T40" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925538</v>
       </c>
       <c r="U40" t="n">
         <v>0.1257206430118155</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171346</v>
       </c>
       <c r="H41" t="n">
-        <v>52.62293376879731</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I41" t="n">
         <v>198.095511204351</v>
@@ -34132,28 +34132,28 @@
         <v>436.1094324383707</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171638</v>
+        <v>653.614989517164</v>
       </c>
       <c r="L41" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869755</v>
       </c>
       <c r="M41" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654302</v>
       </c>
       <c r="N41" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117595</v>
       </c>
       <c r="O41" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565681</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829628</v>
+        <v>738.898440582963</v>
       </c>
       <c r="Q41" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972014</v>
       </c>
       <c r="R41" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581562</v>
       </c>
       <c r="S41" t="n">
         <v>117.0897208110797</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H42" t="n">
         <v>26.55196259533502</v>
       </c>
       <c r="I42" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781105</v>
       </c>
       <c r="J42" t="n">
-        <v>259.7437903115857</v>
+        <v>208.2975609288258</v>
       </c>
       <c r="K42" t="n">
         <v>443.9435090247272</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155586</v>
       </c>
       <c r="M42" t="n">
-        <v>696.5971294879671</v>
+        <v>696.5971294879672</v>
       </c>
       <c r="N42" t="n">
-        <v>715.0339827160632</v>
+        <v>715.0339827160633</v>
       </c>
       <c r="O42" t="n">
-        <v>211.6584993001642</v>
+        <v>654.1164009578287</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,10 +34235,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486999</v>
       </c>
       <c r="T42" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U42" t="n">
         <v>0.1808716798047345</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H43" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I43" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051425</v>
       </c>
       <c r="J43" t="n">
         <v>162.9549067838147</v>
@@ -34296,16 +34296,16 @@
         <v>342.6725659692049</v>
       </c>
       <c r="M43" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N43" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O43" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P43" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q43" t="n">
         <v>193.0021404636386</v>
@@ -34314,10 +34314,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S43" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T43" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925538</v>
       </c>
       <c r="U43" t="n">
         <v>0.1257206430118155</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171346</v>
       </c>
       <c r="H44" t="n">
-        <v>52.62293376879731</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I44" t="n">
         <v>198.095511204351</v>
@@ -34369,28 +34369,28 @@
         <v>436.1094324383707</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171645</v>
       </c>
       <c r="L44" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869755</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654302</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117584</v>
+        <v>916.8452708117595</v>
       </c>
       <c r="O44" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565681</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829628</v>
+        <v>738.898440582963</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972014</v>
       </c>
       <c r="R44" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581562</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110797</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H45" t="n">
         <v>26.55196259533502</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781105</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7437903115857</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>443.9435090247272</v>
       </c>
       <c r="L45" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155586</v>
       </c>
       <c r="M45" t="n">
-        <v>696.5971294879671</v>
+        <v>696.5971294879672</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160632</v>
+        <v>715.0339827160633</v>
       </c>
       <c r="O45" t="n">
-        <v>211.6584993001642</v>
+        <v>654.1164009578287</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892352</v>
+        <v>215.4343416764895</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486999</v>
       </c>
       <c r="T45" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U45" t="n">
         <v>0.1808716798047345</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H46" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I46" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051425</v>
       </c>
       <c r="J46" t="n">
         <v>162.9549067838147</v>
@@ -34533,16 +34533,16 @@
         <v>342.6725659692049</v>
       </c>
       <c r="M46" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N46" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O46" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P46" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q46" t="n">
         <v>193.0021404636386</v>
@@ -34551,10 +34551,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S46" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925538</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="K5" t="n">
-        <v>36.99361326575547</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>36.99361326575547</v>
+        <v>25.21757465157253</v>
       </c>
       <c r="M5" t="n">
-        <v>36.99361326575547</v>
+        <v>17.36843693119934</v>
       </c>
       <c r="N5" t="n">
-        <v>27.90228721977597</v>
+        <v>22.30988890275955</v>
       </c>
       <c r="O5" t="n">
         <v>7.596634600898483</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>35.49892182067445</v>
+      </c>
+      <c r="M7" t="n">
         <v>36.99361326575547</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>35.49892182067445</v>
       </c>
       <c r="N7" t="n">
         <v>36.99361326575547</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="P7" t="n">
-        <v>36.99361326575547</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>49.27157002399011</v>
+        <v>49.27157002399087</v>
       </c>
       <c r="K8" t="n">
-        <v>40.62243759887713</v>
+        <v>40.6224375988769</v>
       </c>
       <c r="L8" t="n">
-        <v>87.67023285026625</v>
+        <v>87.67023285026602</v>
       </c>
       <c r="M8" t="n">
-        <v>129.5393570429494</v>
+        <v>129.5393570429491</v>
       </c>
       <c r="N8" t="n">
-        <v>136.2958517730042</v>
+        <v>136.2958517730039</v>
       </c>
       <c r="O8" t="n">
-        <v>115.2303470779076</v>
+        <v>115.2303470779073</v>
       </c>
       <c r="P8" t="n">
-        <v>63.49693946556738</v>
+        <v>63.49693946556715</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.23762151646889</v>
+        <v>39.23762151646875</v>
       </c>
       <c r="L9" t="n">
-        <v>99.55026996340843</v>
+        <v>99.55026996340823</v>
       </c>
       <c r="M9" t="n">
-        <v>135.7228616576086</v>
+        <v>135.7228616576084</v>
       </c>
       <c r="N9" t="n">
-        <v>153.8692287332895</v>
+        <v>153.8692287332893</v>
       </c>
       <c r="O9" t="n">
-        <v>118.3160459226669</v>
+        <v>118.3160459226668</v>
       </c>
       <c r="P9" t="n">
-        <v>75.43070803911965</v>
+        <v>75.43070803911951</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>84.54389742084994</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>157.1187419577134</v>
+        <v>157.1187419577132</v>
       </c>
       <c r="M10" t="n">
-        <v>157.1187419577134</v>
+        <v>157.1187419577132</v>
       </c>
       <c r="N10" t="n">
-        <v>157.1187419577134</v>
+        <v>153.3561916080873</v>
       </c>
       <c r="O10" t="n">
-        <v>66.22661253857201</v>
+        <v>154.5330603090476</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P14" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R14" t="n">
         <v>107.1851555440239</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K15" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327296</v>
+        <v>459.724818034146</v>
       </c>
       <c r="O15" t="n">
-        <v>412.5678332385582</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831111</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714186</v>
+        <v>69.59572666714189</v>
       </c>
       <c r="K16" t="n">
         <v>245.5154777892838</v>
@@ -35814,13 +35814,13 @@
         <v>400.8840515372959</v>
       </c>
       <c r="N16" t="n">
-        <v>396.8414363488768</v>
+        <v>396.8414363488769</v>
       </c>
       <c r="O16" t="n">
         <v>350.3692208386573</v>
       </c>
       <c r="P16" t="n">
-        <v>276.0431317030919</v>
+        <v>276.043131703092</v>
       </c>
       <c r="Q16" t="n">
         <v>106.8400972119442</v>
@@ -35969,13 +35969,13 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>484.7399473579036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>511.520156513384</v>
+        <v>441.7970083053389</v>
       </c>
       <c r="P18" t="n">
         <v>391.0116722749049</v>
@@ -36048,7 +36048,7 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
         <v>428.4516387010908</v>
@@ -36206,13 +36206,13 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>484.7399473579036</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327297</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>412.567833238558</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P21" t="n">
         <v>391.0116722749049</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L23" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L24" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
-        <v>207.149746775542</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O24" t="n">
-        <v>511.520156513384</v>
+        <v>412.5678332385575</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q24" t="n">
         <v>210.9575171831112</v>
@@ -36519,16 +36519,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N25" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116832</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K26" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721834</v>
       </c>
       <c r="L26" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381575</v>
       </c>
       <c r="N26" t="n">
         <v>687.4322072151685</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348814</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276934</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227519</v>
       </c>
       <c r="R26" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440219</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K27" t="n">
         <v>306.1020700503682</v>
       </c>
       <c r="L27" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356844</v>
       </c>
       <c r="M27" t="n">
-        <v>8.938711046334902</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327299</v>
+        <v>484.7399473579022</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133841</v>
+        <v>511.5201565133842</v>
       </c>
       <c r="P27" t="n">
-        <v>391.011672274905</v>
+        <v>391.0116722749051</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831113</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>432.4942538895099</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O28" t="n">
         <v>381.9794231908713</v>
@@ -36832,25 +36832,25 @@
         <v>255.0635279116844</v>
       </c>
       <c r="K29" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721834</v>
       </c>
       <c r="L29" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381575</v>
       </c>
       <c r="N29" t="n">
         <v>687.4322072151685</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348814</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276934</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227519</v>
       </c>
       <c r="R29" t="n">
         <v>107.185155544024</v>
@@ -36914,19 +36914,19 @@
         <v>306.1020700503682</v>
       </c>
       <c r="L30" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356844</v>
       </c>
       <c r="M30" t="n">
-        <v>112.0051939082845</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327299</v>
+        <v>141.2343689750648</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133841</v>
+        <v>511.5201565133842</v>
       </c>
       <c r="P30" t="n">
-        <v>391.011672274905</v>
+        <v>391.0116722749051</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116832</v>
       </c>
       <c r="K32" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721834</v>
       </c>
       <c r="L32" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381575</v>
       </c>
       <c r="N32" t="n">
         <v>687.4322072151685</v>
       </c>
       <c r="O32" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348814</v>
       </c>
       <c r="P32" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276934</v>
       </c>
       <c r="Q32" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227519</v>
       </c>
       <c r="R32" t="n">
         <v>107.185155544024</v>
@@ -37151,25 +37151,25 @@
         <v>306.1020700503682</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356844</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659488</v>
       </c>
       <c r="N33" t="n">
-        <v>416.7818789815809</v>
+        <v>583.69227063273</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>460.0739271306242</v>
       </c>
       <c r="P33" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
         <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O34" t="n">
         <v>381.9794231908713</v>
@@ -37245,7 +37245,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>255.0635279116844</v>
       </c>
       <c r="K35" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721834</v>
       </c>
       <c r="L35" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M35" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381575</v>
       </c>
       <c r="N35" t="n">
         <v>687.4322072151685</v>
       </c>
       <c r="O35" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348814</v>
       </c>
       <c r="P35" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276934</v>
       </c>
       <c r="Q35" t="n">
-        <v>332.5762668227503</v>
+        <v>332.5762668227519</v>
       </c>
       <c r="R35" t="n">
-        <v>107.185155544024</v>
+        <v>107.185155544021</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K36" t="n">
         <v>306.1020700503682</v>
       </c>
       <c r="L36" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356844</v>
       </c>
       <c r="M36" t="n">
-        <v>8.938711046334902</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327299</v>
+        <v>583.69227063273</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306242</v>
       </c>
       <c r="P36" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M37" t="n">
         <v>432.4942538895099</v>
@@ -37543,25 +37543,25 @@
         <v>255.0635279116844</v>
       </c>
       <c r="K38" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721834</v>
       </c>
       <c r="L38" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381575</v>
       </c>
       <c r="N38" t="n">
         <v>687.4322072151685</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348814</v>
       </c>
       <c r="P38" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276934</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227519</v>
       </c>
       <c r="R38" t="n">
         <v>107.185155544024</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>81.45993426215911</v>
       </c>
       <c r="K39" t="n">
         <v>306.1020700503682</v>
       </c>
       <c r="L39" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356844</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659488</v>
       </c>
       <c r="N39" t="n">
-        <v>574.7031719502576</v>
+        <v>583.69227063273</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>511.5201565133842</v>
       </c>
       <c r="P39" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K40" t="n">
         <v>277.1256801414978</v>
@@ -37707,19 +37707,19 @@
         <v>401.872793581735</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O40" t="n">
         <v>381.9794231908713</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>255.0635279116844</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721834</v>
       </c>
       <c r="L41" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M41" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381575</v>
       </c>
       <c r="N41" t="n">
         <v>687.4322072151685</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348814</v>
       </c>
       <c r="P41" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276934</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227519</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440219</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.906163644919</v>
+        <v>81.45993426215912</v>
       </c>
       <c r="K42" t="n">
         <v>306.1020700503682</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356844</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659488</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327299</v>
+        <v>583.69227063273</v>
       </c>
       <c r="O42" t="n">
-        <v>69.0622548557198</v>
+        <v>511.5201565133842</v>
       </c>
       <c r="P42" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O43" t="n">
         <v>381.9794231908713</v>
@@ -38017,25 +38017,25 @@
         <v>255.0635279116844</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721833</v>
+        <v>433.525138472184</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381575</v>
       </c>
       <c r="N44" t="n">
-        <v>687.4322072151674</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348814</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276934</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227519</v>
       </c>
       <c r="R44" t="n">
         <v>107.185155544024</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.906163644919</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>306.1020700503682</v>
       </c>
       <c r="L45" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356844</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659488</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327299</v>
+        <v>583.69227063273</v>
       </c>
       <c r="O45" t="n">
-        <v>69.0622548557198</v>
+        <v>511.5201565133842</v>
       </c>
       <c r="P45" t="n">
-        <v>391.011672274905</v>
+        <v>81.45993426215921</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
